--- a/data/math/math-73.xlsx
+++ b/data/math/math-73.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1007,7 +1007,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$4</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1015,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new IllegalArgumentException() {
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.05882</t>
@@ -1039,7 +1044,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1068,7 +1073,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1097,7 +1102,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1126,7 +1131,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1155,7 +1160,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1184,7 +1189,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1213,7 +1218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1242,7 +1247,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1271,7 +1276,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1300,7 +1305,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1329,7 +1334,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1358,7 +1363,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1387,7 +1392,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1416,7 +1421,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1445,7 +1450,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1474,7 +1479,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1503,7 +1508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1532,7 +1537,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1561,7 +1566,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1590,7 +1595,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1619,7 +1624,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1648,7 +1653,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1677,7 +1682,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1706,7 +1711,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1735,7 +1740,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1764,7 +1769,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1793,7 +1798,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1822,7 +1827,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1851,7 +1856,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1880,7 +1885,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1909,7 +1914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1938,7 +1943,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1967,7 +1972,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1996,7 +2001,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2025,7 +2030,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2054,7 +2059,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2083,7 +2088,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2112,7 +2117,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2141,7 +2146,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2170,7 +2175,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2199,7 +2204,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2228,7 +2233,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2257,7 +2262,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2286,7 +2291,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2315,7 +2320,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2344,7 +2349,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2373,7 +2378,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2402,7 +2407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2431,7 +2436,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2460,7 +2465,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2489,7 +2494,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2518,7 +2523,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2547,7 +2552,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2576,7 +2581,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2605,7 +2610,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2634,7 +2639,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2663,7 +2668,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2692,7 +2697,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2721,7 +2726,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2750,7 +2755,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2779,7 +2784,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2808,7 +2813,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2837,7 +2842,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2866,7 +2871,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2895,7 +2900,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2924,7 +2929,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2953,7 +2958,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2982,7 +2987,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3011,7 +3016,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3040,7 +3045,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3069,7 +3074,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3090,7 +3095,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$3</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3098,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new EOFException() {
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3114,7 +3124,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$3</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3122,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3138,7 +3153,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$3</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3146,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3170,7 +3190,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3199,7 +3219,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3228,7 +3248,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3257,7 +3277,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3286,7 +3306,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3315,7 +3335,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3344,7 +3364,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3373,7 +3393,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3402,7 +3422,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3431,7 +3451,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3460,7 +3480,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3489,7 +3509,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3518,7 +3538,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3547,7 +3567,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3576,7 +3596,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3605,7 +3625,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3634,7 +3654,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3663,7 +3683,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3692,7 +3712,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3721,7 +3741,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3750,7 +3770,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3779,7 +3799,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3808,7 +3828,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3837,7 +3857,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3866,7 +3886,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3895,7 +3915,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3924,7 +3944,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3953,7 +3973,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3982,7 +4002,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4011,7 +4031,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4040,7 +4060,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4069,7 +4089,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4098,7 +4118,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4127,7 +4147,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4156,7 +4176,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4185,7 +4205,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4214,7 +4234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4243,7 +4263,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4272,7 +4292,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4301,7 +4321,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4330,7 +4350,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4359,7 +4379,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4388,7 +4408,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4417,7 +4437,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4446,7 +4466,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4475,7 +4495,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>466</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4504,7 +4524,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4533,7 +4553,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4562,7 +4582,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4591,7 +4611,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4620,7 +4640,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4649,7 +4669,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4678,7 +4698,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4707,7 +4727,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4736,7 +4756,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4765,7 +4785,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4794,7 +4814,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4823,7 +4843,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4852,7 +4872,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4881,7 +4901,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4910,7 +4930,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4939,7 +4959,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4968,7 +4988,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4997,7 +5017,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5026,7 +5046,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5055,7 +5075,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5084,7 +5104,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5113,7 +5133,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5142,7 +5162,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5171,7 +5191,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5200,7 +5220,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5229,7 +5249,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5258,7 +5278,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5287,7 +5307,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5316,7 +5336,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5345,7 +5365,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5374,7 +5394,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5403,7 +5423,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5432,7 +5452,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5461,7 +5481,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5490,7 +5510,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5519,7 +5539,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5548,7 +5568,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5577,7 +5597,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5606,7 +5626,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5635,7 +5655,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5664,7 +5684,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5693,7 +5713,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5722,7 +5742,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5751,7 +5771,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5780,7 +5800,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5809,7 +5829,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5838,7 +5858,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5867,7 +5887,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5896,7 +5916,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5925,7 +5945,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5954,7 +5974,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5983,7 +6003,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6012,7 +6032,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6041,7 +6061,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6070,7 +6090,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6091,7 +6111,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$2</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -6099,10 +6119,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new ArrayIndexOutOfBoundsException() {
+</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6115,7 +6140,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$2</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -6123,10 +6148,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6139,7 +6169,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$2</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -6147,10 +6177,15 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6163,7 +6198,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$8</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -6171,10 +6206,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new NullPointerException() {
+</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6187,7 +6227,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$8</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6195,10 +6235,15 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6211,7 +6256,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$8</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -6219,10 +6264,15 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6235,7 +6285,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$9</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -6243,10 +6293,15 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new ParseException(null, offset) {
+</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6259,7 +6314,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$9</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -6267,10 +6322,15 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6283,7 +6343,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$9</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -6291,10 +6351,15 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -6315,7 +6380,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6344,7 +6409,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6373,7 +6438,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6402,7 +6467,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6431,7 +6496,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6460,7 +6525,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6489,7 +6554,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6518,7 +6583,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6547,7 +6612,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6576,7 +6641,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6605,7 +6670,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6634,7 +6699,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6663,7 +6728,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6692,7 +6757,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6721,7 +6786,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6750,7 +6815,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6779,7 +6844,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6808,7 +6873,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6837,7 +6902,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6866,7 +6931,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6895,7 +6960,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6924,7 +6989,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6953,7 +7018,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6982,7 +7047,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7011,7 +7076,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7040,7 +7105,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7069,7 +7134,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7098,7 +7163,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7127,7 +7192,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7156,7 +7221,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7185,7 +7250,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7214,7 +7279,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7243,7 +7308,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7272,7 +7337,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7301,7 +7366,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7330,7 +7395,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7359,7 +7424,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7388,7 +7453,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7417,7 +7482,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7446,7 +7511,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7475,7 +7540,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7504,7 +7569,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7533,7 +7598,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7562,7 +7627,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7591,7 +7656,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7620,7 +7685,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7649,7 +7714,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7678,7 +7743,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7707,7 +7772,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7736,7 +7801,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7765,7 +7830,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7794,7 +7859,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7823,7 +7888,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7852,7 +7917,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7881,7 +7946,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7910,7 +7975,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7939,7 +8004,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7968,7 +8033,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7997,7 +8062,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8026,7 +8091,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8055,7 +8120,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8084,7 +8149,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8113,7 +8178,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8142,7 +8207,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8171,7 +8236,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8200,7 +8265,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8229,7 +8294,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8258,7 +8323,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8287,7 +8352,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8316,7 +8381,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8345,7 +8410,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8374,7 +8439,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8403,7 +8468,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8432,7 +8497,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8461,7 +8526,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8490,7 +8555,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8519,7 +8584,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8548,7 +8613,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8577,7 +8642,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8606,7 +8671,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8635,7 +8700,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8664,7 +8729,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8693,7 +8758,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8722,7 +8787,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8751,7 +8816,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8772,7 +8837,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$1</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -8780,10 +8845,15 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr"/>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new ArithmeticException() {
+</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8796,7 +8866,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$1</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -8804,10 +8874,15 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8820,7 +8895,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$1</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -8828,10 +8903,15 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E293" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8844,7 +8924,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$5</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -8852,10 +8932,15 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new IllegalStateException() {
+</t>
+        </is>
+      </c>
       <c r="E294" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8868,7 +8953,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$5</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -8876,10 +8961,15 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8892,7 +8982,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$5</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -8900,10 +8990,15 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr"/>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8916,7 +9011,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$10</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -8924,10 +9019,15 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr"/>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new RuntimeException() {
+</t>
+        </is>
+      </c>
       <c r="E297" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8940,7 +9040,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$10</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -8948,10 +9048,15 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>297</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr"/>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, argument);
+</t>
+        </is>
+      </c>
       <c r="E298" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8964,7 +9069,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$10</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -8972,10 +9077,15 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, argument);
+</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -8988,7 +9098,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$7</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -8996,10 +9106,15 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr"/>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new NoSuchElementException() {
+</t>
+        </is>
+      </c>
       <c r="E300" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9012,7 +9127,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$7</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -9020,10 +9135,15 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr"/>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E301" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9036,7 +9156,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$7</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -9044,10 +9164,15 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr"/>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E302" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9060,7 +9185,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$6</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -9068,10 +9193,15 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new ConcurrentModificationException() {
+</t>
+        </is>
+      </c>
       <c r="E303" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9084,7 +9214,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$6</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -9092,10 +9222,15 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr"/>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E304" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9108,7 +9243,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$6</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -9116,10 +9251,15 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr"/>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E305" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9132,7 +9272,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$4</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -9140,10 +9280,15 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr"/>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.US, pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E306" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -9156,7 +9301,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.MathRuntimeException$4</t>
+          <t>org.apache.commons.math.MathRuntimeException</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -9164,10 +9309,15 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return buildMessage(Locale.getDefault(), pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E307" t="inlineStr">
         <is>
           <t>0.00000</t>
